--- a/data/trans_orig/P1803_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1803_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>31702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21647</v>
+        <v>22328</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44286</v>
+        <v>45149</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07388217239696504</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05044727594266702</v>
+        <v>0.05203531704828893</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.10320865977995</v>
+        <v>0.105220696581962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -763,19 +763,19 @@
         <v>25978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16852</v>
+        <v>17096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37276</v>
+        <v>37661</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07485311088793613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04855609613435181</v>
+        <v>0.04925940452596574</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1074071055367908</v>
+        <v>0.1085150493681329</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -784,19 +784,19 @@
         <v>57680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43527</v>
+        <v>45070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73269</v>
+        <v>76002</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0743163285597524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05608028496605851</v>
+        <v>0.05806876580079237</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09440103262606218</v>
+        <v>0.09792265361585577</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>397390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>384806</v>
+        <v>383943</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>407445</v>
+        <v>406764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.926117827603035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8967913402200499</v>
+        <v>0.8947793034180378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.949552724057333</v>
+        <v>0.9479646829517111</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>307</v>
@@ -834,19 +834,19 @@
         <v>321077</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309779</v>
+        <v>309394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>330203</v>
+        <v>329959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9251468891120639</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8925928944632091</v>
+        <v>0.8914849506318669</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9514439038656484</v>
+        <v>0.9507405954740342</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>674</v>
@@ -855,19 +855,19 @@
         <v>718467</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>702878</v>
+        <v>700145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>732620</v>
+        <v>731077</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9256836714402475</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9055989673739379</v>
+        <v>0.9020773463841443</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9439197150339415</v>
+        <v>0.9419312341992077</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>14046</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7812</v>
+        <v>8055</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23860</v>
+        <v>25032</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03723397948407537</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02070895880410716</v>
+        <v>0.02135321486475543</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06325147797314606</v>
+        <v>0.0663588230816716</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -980,19 +980,19 @@
         <v>32372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22404</v>
+        <v>22224</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46948</v>
+        <v>45532</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08695831228638164</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06018209376054424</v>
+        <v>0.05969799760157059</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1261118757208294</v>
+        <v>0.1223087002944789</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -1001,19 +1001,19 @@
         <v>46418</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34537</v>
+        <v>34307</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61478</v>
+        <v>62933</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06193182256202081</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04608069086411787</v>
+        <v>0.0457734194112626</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08202532982396379</v>
+        <v>0.08396710373214976</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>363181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353367</v>
+        <v>352195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>369415</v>
+        <v>369172</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9627660205159246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9367485220268537</v>
+        <v>0.9336411769183285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9792910411958926</v>
+        <v>0.9786467851352446</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>322</v>
@@ -1051,19 +1051,19 @@
         <v>339901</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325325</v>
+        <v>326741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>349869</v>
+        <v>350049</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9130416877136184</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8738881242791707</v>
+        <v>0.8776912997055211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9398179062394558</v>
+        <v>0.9403020023984294</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>663</v>
@@ -1072,19 +1072,19 @@
         <v>703082</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>688022</v>
+        <v>686567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714963</v>
+        <v>715193</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9380681774379792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9179746701760364</v>
+        <v>0.916032896267851</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9539193091358823</v>
+        <v>0.9542265805887375</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>24211</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15464</v>
+        <v>15345</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35481</v>
+        <v>34857</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04638926473026803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02963034140711254</v>
+        <v>0.02940162048108835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06798332023733449</v>
+        <v>0.06678664691145957</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1197,19 +1197,19 @@
         <v>11393</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5978</v>
+        <v>5297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20580</v>
+        <v>18915</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06858174858761491</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03598247905619782</v>
+        <v>0.03188343913915371</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1238845512542325</v>
+        <v>0.1138611987524173</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1218,19 +1218,19 @@
         <v>35604</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24770</v>
+        <v>25540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48389</v>
+        <v>48881</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05174752359667908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03600101519742067</v>
+        <v>0.03712072723661153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0703296205780983</v>
+        <v>0.07104400898301903</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>497703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>486433</v>
+        <v>487057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>506450</v>
+        <v>506569</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9536107352697319</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9320166797626656</v>
+        <v>0.9332133530885396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9703696585928875</v>
+        <v>0.9705983795189115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -1268,19 +1268,19 @@
         <v>154730</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145543</v>
+        <v>147208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160145</v>
+        <v>160826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9314182514123851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8761154487457677</v>
+        <v>0.8861388012475829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9640175209438023</v>
+        <v>0.9681165608608463</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -1289,19 +1289,19 @@
         <v>652432</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>639647</v>
+        <v>639155</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663266</v>
+        <v>662496</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9482524764033209</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9296703794219012</v>
+        <v>0.928955991016981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9639989848025793</v>
+        <v>0.9628792727633885</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>52122</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38009</v>
+        <v>38963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68939</v>
+        <v>69005</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04533756889876191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0330619080503207</v>
+        <v>0.03389166099869686</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05996554042264098</v>
+        <v>0.06002296016447402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1414,19 +1414,19 @@
         <v>51287</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38037</v>
+        <v>38394</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65977</v>
+        <v>66394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0621004703657828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04605643198365468</v>
+        <v>0.04648917416908034</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07988698164009948</v>
+        <v>0.08039246267532039</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -1435,19 +1435,19 @@
         <v>103409</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83366</v>
+        <v>84679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124968</v>
+        <v>127203</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05234540282522263</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04219987105665535</v>
+        <v>0.04286428054646388</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06325869049334236</v>
+        <v>0.06438974540037408</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1097516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1080699</v>
+        <v>1080633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1111629</v>
+        <v>1110675</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9546624311012381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.940034459577359</v>
+        <v>0.9399770398355259</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9669380919496794</v>
+        <v>0.9661083390013032</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>749</v>
@@ -1485,19 +1485,19 @@
         <v>774589</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>759899</v>
+        <v>759482</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>787839</v>
+        <v>787482</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9378995296342172</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9201130183599006</v>
+        <v>0.9196075373246797</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9539435680163456</v>
+        <v>0.9535108258309197</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1805</v>
@@ -1506,19 +1506,19 @@
         <v>1872105</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1850546</v>
+        <v>1848311</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1892148</v>
+        <v>1890835</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9476545971747774</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9367413095066577</v>
+        <v>0.935610254599626</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9578001289433449</v>
+        <v>0.9571357194535361</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>21569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13589</v>
+        <v>13711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32242</v>
+        <v>31661</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0347487233514308</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02189256408348446</v>
+        <v>0.02208952578287294</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05194380260100463</v>
+        <v>0.05100827140566883</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -1631,19 +1631,19 @@
         <v>31793</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22225</v>
+        <v>21576</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45695</v>
+        <v>44978</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.043065404497004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03010559786787134</v>
+        <v>0.02922639127182347</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0618965522276029</v>
+        <v>0.06092616848169193</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1652,19 +1652,19 @@
         <v>53362</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39979</v>
+        <v>40447</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69751</v>
+        <v>69386</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03926672694730699</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02941931980592422</v>
+        <v>0.02976339548969417</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.051327271489429</v>
+        <v>0.05105889615439607</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>599137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>588464</v>
+        <v>589045</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>607117</v>
+        <v>606995</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9652512766485692</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9480561973989967</v>
+        <v>0.9489917285943315</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9781074359165157</v>
+        <v>0.9779104742171272</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>669</v>
@@ -1702,19 +1702,19 @@
         <v>706451</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>692549</v>
+        <v>693266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>716019</v>
+        <v>716668</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.956934595502996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9381034477723973</v>
+        <v>0.939073831518308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9698944021321286</v>
+        <v>0.9707736087281765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1245</v>
@@ -1723,19 +1723,19 @@
         <v>1305588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1289199</v>
+        <v>1289564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1318971</v>
+        <v>1318503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.960733273052693</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9486727285105708</v>
+        <v>0.948941103845604</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9705806801940756</v>
+        <v>0.9702366045103059</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>10384</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5174</v>
+        <v>4691</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19606</v>
+        <v>18172</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0361617273343897</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01801858226658511</v>
+        <v>0.01633830178383812</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06827829907498548</v>
+        <v>0.06328383974471362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -1848,19 +1848,19 @@
         <v>42883</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29816</v>
+        <v>30944</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57289</v>
+        <v>58300</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03963221195732531</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02755556138412769</v>
+        <v>0.02859779256392651</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0529461553491274</v>
+        <v>0.05388052515698475</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1869,19 +1869,19 @@
         <v>53267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40575</v>
+        <v>40128</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71913</v>
+        <v>70194</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0389043747866172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02963457476345268</v>
+        <v>0.02930815838562442</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05252271445883462</v>
+        <v>0.05126753178746644</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>276761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267539</v>
+        <v>268973</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281971</v>
+        <v>282454</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9638382726656103</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9317217009250145</v>
+        <v>0.9367161602552864</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9819814177334149</v>
+        <v>0.9836616982161619</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>956</v>
@@ -1919,19 +1919,19 @@
         <v>1039142</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1024736</v>
+        <v>1023725</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1052209</v>
+        <v>1051081</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9603677880426746</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9470538446508726</v>
+        <v>0.9461194748430142</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9724444386158724</v>
+        <v>0.9714022074360734</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1219</v>
@@ -1940,19 +1940,19 @@
         <v>1315903</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1297257</v>
+        <v>1298976</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1328595</v>
+        <v>1329042</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9610956252133828</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9474772855411654</v>
+        <v>0.9487324682125335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9703654252365473</v>
+        <v>0.9706918416143755</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>154033</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129699</v>
+        <v>126144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>179537</v>
+        <v>178730</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04549496798422124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03830769845462773</v>
+        <v>0.03725773832907207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05302781226819699</v>
+        <v>0.05278924874624531</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>181</v>
@@ -2065,19 +2065,19 @@
         <v>195707</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>169612</v>
+        <v>168920</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>225657</v>
+        <v>226125</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05541588007421242</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04802696698571112</v>
+        <v>0.04783118174767956</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0638966413576879</v>
+        <v>0.06402921704638341</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>322</v>
@@ -2086,19 +2086,19 @@
         <v>349740</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>313674</v>
+        <v>314692</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>389733</v>
+        <v>389527</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05056003105572327</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04534623030536943</v>
+        <v>0.04549328767839032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05634166719525064</v>
+        <v>0.05631182424880911</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>3231689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3206185</v>
+        <v>3206992</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3256023</v>
+        <v>3259578</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9545050320157787</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.946972187731803</v>
+        <v>0.9472107512537548</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9616923015453722</v>
+        <v>0.962742261670928</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3145</v>
@@ -2136,19 +2136,19 @@
         <v>3335889</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3305939</v>
+        <v>3305471</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3361984</v>
+        <v>3362676</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9445841199257876</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9361033586423118</v>
+        <v>0.9359707829536166</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9519730330142887</v>
+        <v>0.9521688182523204</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6228</v>
@@ -2157,19 +2157,19 @@
         <v>6567578</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6527585</v>
+        <v>6527791</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6603644</v>
+        <v>6602626</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9494399689442767</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9436583328047496</v>
+        <v>0.9436881757511908</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9546537696946307</v>
+        <v>0.9545067123216097</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>69563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52817</v>
+        <v>53413</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88013</v>
+        <v>87733</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1263362259633853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09592371343763977</v>
+        <v>0.09700481140362648</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1598443908263055</v>
+        <v>0.1593350563595891</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>114</v>
@@ -2524,19 +2524,19 @@
         <v>80368</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67109</v>
+        <v>66330</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95193</v>
+        <v>94869</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1645499080707279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1374018868692364</v>
+        <v>0.1358076208921079</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1949036780344093</v>
+        <v>0.1942403039417162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>181</v>
@@ -2545,19 +2545,19 @@
         <v>149931</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127910</v>
+        <v>128530</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>173000</v>
+        <v>173932</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1442991274779086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1231054892357043</v>
+        <v>0.1237016872183197</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1665016039401147</v>
+        <v>0.1673981830724662</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>481055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>462605</v>
+        <v>462885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>497801</v>
+        <v>497205</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8736637740366148</v>
+        <v>0.8736637740366149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8401556091736945</v>
+        <v>0.8406649436404108</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9040762865623605</v>
+        <v>0.9029951885963733</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>572</v>
@@ -2595,19 +2595,19 @@
         <v>408043</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>393218</v>
+        <v>393542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>421302</v>
+        <v>422081</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8354500919292722</v>
+        <v>0.8354500919292721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8050963219655908</v>
+        <v>0.8057596960582839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8625981131307636</v>
+        <v>0.8641923791078923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1059</v>
@@ -2616,19 +2616,19 @@
         <v>889098</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>866029</v>
+        <v>865097</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>911119</v>
+        <v>910499</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8557008725220916</v>
+        <v>0.8557008725220914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8334983960598852</v>
+        <v>0.8326018169275339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8768945107642956</v>
+        <v>0.8762983127816804</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>37572</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26722</v>
+        <v>27057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52011</v>
+        <v>52572</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07775539267804076</v>
+        <v>0.07775539267804074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05530170832845265</v>
+        <v>0.05599500943033058</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1076366808031735</v>
+        <v>0.1087970695447067</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -2741,19 +2741,19 @@
         <v>63873</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51930</v>
+        <v>51785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77020</v>
+        <v>76126</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1509482067476255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1227237376812498</v>
+        <v>0.1223825533933824</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1820183240626647</v>
+        <v>0.1799070019746045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -2762,19 +2762,19 @@
         <v>101445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84879</v>
+        <v>84047</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118660</v>
+        <v>118478</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1119263480001885</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09364864828361612</v>
+        <v>0.09273111620062342</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1309196120988988</v>
+        <v>0.1307187156955016</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>445640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>431201</v>
+        <v>430640</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>456490</v>
+        <v>456155</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9222446073219593</v>
+        <v>0.9222446073219592</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8923633191968273</v>
+        <v>0.891202930455293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9446982916715474</v>
+        <v>0.9440049905696695</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>498</v>
@@ -2812,19 +2812,19 @@
         <v>359270</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>346123</v>
+        <v>347017</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371213</v>
+        <v>371358</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8490517932523743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8179816759373353</v>
+        <v>0.8200929980253954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8772762623187501</v>
+        <v>0.8776174466066178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>941</v>
@@ -2833,19 +2833,19 @@
         <v>804910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>787695</v>
+        <v>787877</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>821476</v>
+        <v>822308</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8880736519998115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8690803879011013</v>
+        <v>0.869281284304498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9063513517163839</v>
+        <v>0.9072688837993765</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>47990</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34964</v>
+        <v>36146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62894</v>
+        <v>62935</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1017565696001968</v>
+        <v>0.1017565696001967</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07413632737535013</v>
+        <v>0.07664412298113286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1333600556643161</v>
+        <v>0.1334466962685771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -2958,19 +2958,19 @@
         <v>16995</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11172</v>
+        <v>11415</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23748</v>
+        <v>23751</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09063923814219538</v>
+        <v>0.09063923814219536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05958465203989335</v>
+        <v>0.06087994534214124</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1266555462200031</v>
+        <v>0.1266748796024705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -2979,19 +2979,19 @@
         <v>64984</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50907</v>
+        <v>51428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83331</v>
+        <v>81854</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0985940130817666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07723618139895433</v>
+        <v>0.07802649302204182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1264298430188608</v>
+        <v>0.1241888072335497</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>423622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408718</v>
+        <v>408677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>436648</v>
+        <v>435466</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8982434303998033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8666399443356838</v>
+        <v>0.8665533037314226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9258636726246499</v>
+        <v>0.9233558770188671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -3029,19 +3029,19 @@
         <v>170502</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>163749</v>
+        <v>163746</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>176325</v>
+        <v>176082</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9093607618578047</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8733444537799966</v>
+        <v>0.8733251203975293</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9404153479601066</v>
+        <v>0.9391200546578585</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>706</v>
@@ -3050,19 +3050,19 @@
         <v>594125</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>575778</v>
+        <v>577255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>608202</v>
+        <v>607681</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9014059869182335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8735701569811395</v>
+        <v>0.8758111927664501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9227638186010457</v>
+        <v>0.9219735069779583</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>76240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60187</v>
+        <v>59299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98123</v>
+        <v>97752</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06735920284462034</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05317636356445511</v>
+        <v>0.05239191699381843</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08669279638758581</v>
+        <v>0.08636491688522958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -3175,19 +3175,19 @@
         <v>86895</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73326</v>
+        <v>72333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104608</v>
+        <v>102655</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1009681892197728</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08520225632766221</v>
+        <v>0.08404861215370818</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1215501929795002</v>
+        <v>0.1192811483232873</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>203</v>
@@ -3196,19 +3196,19 @@
         <v>163135</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141248</v>
+        <v>140513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>188150</v>
+        <v>188367</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08187614970094767</v>
+        <v>0.08187614970094768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07089149090573119</v>
+        <v>0.07052232618414672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09443099182252737</v>
+        <v>0.09454013636147029</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>1055603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1033720</v>
+        <v>1034091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1071656</v>
+        <v>1072544</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9326407971553796</v>
+        <v>0.9326407971553794</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9133072036124147</v>
+        <v>0.9136350831147706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9468236364355449</v>
+        <v>0.9476080830061816</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1100</v>
@@ -3246,19 +3246,19 @@
         <v>773720</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>756007</v>
+        <v>757960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>787289</v>
+        <v>788282</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8990318107802272</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8784498070204998</v>
+        <v>0.8807188516767127</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9147977436723376</v>
+        <v>0.915951387846292</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2144</v>
@@ -3267,19 +3267,19 @@
         <v>1829323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1804308</v>
+        <v>1804091</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1851210</v>
+        <v>1851945</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9181238502990521</v>
+        <v>0.9181238502990524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9055690081774727</v>
+        <v>0.90545986363853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9291085090942688</v>
+        <v>0.9294776738158534</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>33220</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22426</v>
+        <v>23110</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47403</v>
+        <v>47417</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05848889805436931</v>
+        <v>0.05848889805436929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0394852368601862</v>
+        <v>0.04068998736567695</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08346047004258375</v>
+        <v>0.08348536151247865</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -3392,19 +3392,19 @@
         <v>69702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57846</v>
+        <v>57288</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82951</v>
+        <v>84279</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08389211842050198</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06962215313124541</v>
+        <v>0.06895047600907768</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0998381538877737</v>
+        <v>0.1014375548351675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -3413,19 +3413,19 @@
         <v>102921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86993</v>
+        <v>85472</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122390</v>
+        <v>122102</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07357758888953263</v>
+        <v>0.07357758888953261</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06219084053136268</v>
+        <v>0.06110317784370357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08749586851473151</v>
+        <v>0.08728986769346113</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>534744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>520561</v>
+        <v>520547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>545538</v>
+        <v>544854</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9415111019456309</v>
+        <v>0.9415111019456305</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9165395299574175</v>
+        <v>0.9165146384875213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9605147631398142</v>
+        <v>0.9593100126343231</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1176</v>
@@ -3463,19 +3463,19 @@
         <v>761148</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>747899</v>
+        <v>746571</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>773004</v>
+        <v>773562</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9161078815794981</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9001618461122263</v>
+        <v>0.8985624451648324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9303778468687548</v>
+        <v>0.9310495239909223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1692</v>
@@ -3484,19 +3484,19 @@
         <v>1295893</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1276424</v>
+        <v>1276712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1311821</v>
+        <v>1313342</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9264224111104674</v>
+        <v>0.9264224111104673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9125041314852687</v>
+        <v>0.9127101323065389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9378091594686377</v>
+        <v>0.9388968221562966</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>12417</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4199</v>
+        <v>3989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28579</v>
+        <v>29229</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05234213398027176</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01770122890812224</v>
+        <v>0.01681579436054216</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1204716160687577</v>
+        <v>0.1232126828916862</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -3609,19 +3609,19 @@
         <v>47351</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36226</v>
+        <v>35774</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62951</v>
+        <v>60933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05612951844588483</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04294260439967477</v>
+        <v>0.04240686667175625</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07462263593475475</v>
+        <v>0.07223059757051611</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -3630,19 +3630,19 @@
         <v>59768</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44893</v>
+        <v>45183</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81437</v>
+        <v>82183</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05529823342207876</v>
+        <v>0.05529823342207878</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0415360837654242</v>
+        <v>0.04180383379353199</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07534749944119096</v>
+        <v>0.07603760463827706</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>224811</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208649</v>
+        <v>207999</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233029</v>
+        <v>233239</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9476578660197282</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8795283839312422</v>
+        <v>0.8767873171083139</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9822987710918777</v>
+        <v>0.9831842056394579</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1092</v>
@@ -3680,19 +3680,19 @@
         <v>796245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>780645</v>
+        <v>782663</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>807370</v>
+        <v>807822</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9438704815541151</v>
+        <v>0.9438704815541152</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9253773640652464</v>
+        <v>0.9277694024294837</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9570573956003254</v>
+        <v>0.9575931333282434</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1199</v>
@@ -3701,19 +3701,19 @@
         <v>1021056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>999387</v>
+        <v>998641</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1035931</v>
+        <v>1035641</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.944701766577921</v>
+        <v>0.9447017665779212</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9246525005588089</v>
+        <v>0.9239623953617228</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9584639162345757</v>
+        <v>0.9581961662064674</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>277002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>243704</v>
+        <v>243684</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>315150</v>
+        <v>315492</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08046578857357436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07079333919819175</v>
+        <v>0.07078737030933428</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09154738797159866</v>
+        <v>0.09164694439584285</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>542</v>
@@ -3826,19 +3826,19 @@
         <v>365182</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>335341</v>
+        <v>335313</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>398246</v>
+        <v>399396</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1004873715892004</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09227586762589</v>
+        <v>0.09226824077231875</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1095854705088056</v>
+        <v>0.1099019332769015</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>801</v>
@@ -3847,19 +3847,19 @@
         <v>642184</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>595249</v>
+        <v>595751</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>690487</v>
+        <v>691774</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09074767541596772</v>
+        <v>0.09074767541596773</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08411518977993575</v>
+        <v>0.08418618829260167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09757336618305038</v>
+        <v>0.0977552925745767</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>3165474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3127326</v>
+        <v>3126984</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3198772</v>
+        <v>3198792</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9195342114264258</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9084526120284013</v>
+        <v>0.9083530556041572</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.929206660801808</v>
+        <v>0.9292126296906653</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4700</v>
@@ -3897,19 +3897,19 @@
         <v>3268930</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3235866</v>
+        <v>3234716</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3298771</v>
+        <v>3298799</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8995126284107996</v>
+        <v>0.8995126284107997</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8904145294911943</v>
+        <v>0.8900980667230984</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.90772413237411</v>
+        <v>0.9077317592276812</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7741</v>
@@ -3918,19 +3918,19 @@
         <v>6434404</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6386101</v>
+        <v>6384814</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6481339</v>
+        <v>6480837</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9092523245840323</v>
+        <v>0.9092523245840322</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9024266338169497</v>
+        <v>0.9022447074254235</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9158848102200644</v>
+        <v>0.9158138117073983</v>
       </c>
     </row>
     <row r="24">
